--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,85 +43,91 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>cracked</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>filter</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>back</t>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>work</t>
@@ -133,34 +139,34 @@
     <t>small</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
   </si>
   <si>
     <t>perfectly</t>
@@ -533,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>0.796875</v>
@@ -652,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.7419354838709677</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L4">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9191919191919192</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.7391304347826086</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,37 +758,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8867924528301887</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>104</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="K6">
-        <v>0.688135593220339</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>0.5851393188854489</v>
@@ -852,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8728813559322034</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.5281385281385281</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="L8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8269230769230769</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.5194805194805194</v>
+        <v>0.4718614718614719</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8148148148148148</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10">
         <v>0.3157894736842105</v>
@@ -1002,38 +1008,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>0.1885714285714286</v>
+      </c>
+      <c r="L11">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11">
-        <v>0.2514285714285714</v>
-      </c>
-      <c r="L11">
-        <v>44</v>
-      </c>
-      <c r="M11">
-        <v>44</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7351351351351352</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.1757624398073836</v>
+        <v>0.1717495987158908</v>
       </c>
       <c r="L12">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M12">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.04794520547945205</v>
+        <v>0.0452054794520548</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6712328767123288</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1196,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1204,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1222,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1230,13 +1236,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6074074074074074</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C17">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1256,13 +1262,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5660377358490566</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1274,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1282,13 +1288,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5641025641025641</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1300,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1308,13 +1314,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1326,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1334,13 +1340,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5348837209302325</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D21">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1352,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1360,13 +1366,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4820512820512821</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="C22">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1378,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1386,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4788732394366197</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1412,13 +1418,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4324324324324325</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1438,13 +1444,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4247787610619469</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1464,13 +1470,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4022988505747127</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1490,13 +1496,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3365384615384616</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1516,13 +1522,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3300970873786408</v>
+        <v>0.2756410256410257</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1542,13 +1548,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2402234636871508</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C29">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>136</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1568,13 +1574,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2307692307692308</v>
+        <v>0.2458100558659218</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1594,13 +1600,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1509433962264151</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>315</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1620,13 +1626,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1238095238095238</v>
+        <v>0.145</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1638,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1646,13 +1652,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.09523809523809523</v>
+        <v>0.1347708894878706</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>266</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1672,13 +1678,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04217687074829932</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>704</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1698,25 +1704,77 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0339425587467363</v>
+        <v>0.08503401360544217</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>740</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.04967320261437908</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+      <c r="F36">
+        <v>0.95</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
